--- a/ml_model/svm_svc/try.xlsx
+++ b/ml_model/svm_svc/try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\SIH_2022\git\SIH-2022-DR710-PROSOL\ml_model\svm_svc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE875784-D448-4608-973B-A0B4726A180C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8984D12C-6A61-4A6E-BEBA-FB4BA2CC4E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Category</t>
   </si>
@@ -496,6 +496,39 @@
 Individual Contributor Award (02/2022 - Present)
 Shown excellent performance in contributing individually for a complete project in Accenture within a short span of time Best Performance Award (06/2019 - 12/2020)
 Shown excellent performance in completing the projects and optimizing</t>
+  </si>
+  <si>
+    <t>Profile
+Passionate and Professional Sports Coach with a dynamic background
+including High School coachin, group work, private training.
+Knowledgeable about various Sports and adept in planning and
+implementing effective coaching plans. Seeking a position in Sports
+where I can best utilize my knowledge and passion.
+Employment History
+Assistant Director of Sports Department at Great Neck High School,
+New York
+September 2017- December 2020
+Helped to manage the Sports Department, including budgets,
+planning, and curriculum.
+Oversaw Coaches and aimed to achieve a cohesive and strong
+sports program.
+Researched sports techniques and the latest training methods to
+implement into programs.
+Worked with Coaches, Administrators, and Athletes to achieve
+goals.
+Brought forth a spirit and enthusiasm for good sportsmanship.Assistant Sports Manager at Bomba League, New York
+May 2015-July 2017
+Aided the Head of Sports in creating and managing a powerful and
+respected Sports Program.
+Worked with administrators and coaches to achieve desired goals.
+Brought forth a love of Sports and a commitment to helping
+athletes achieve personal goals
+Education
+Bachelor of Sports Management, Nassau Community College,
+Garden City
+September 2015-May 2017
+High School Diploma, Nyack High School, Nyack
+September 2011 May 2015</t>
   </si>
 </sst>
 </file>
@@ -816,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,6 +915,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
